--- a/pouring_simulation/output/results_flask_sim_to_reality.xlsx
+++ b/pouring_simulation/output/results_flask_sim_to_reality.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschober/Documents/GitHub/thesis/pouring_simulation/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85C7AD56-1836-A34E-9118-7F20BF849612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB8B1E-EED9-1A49-8235-9C83D5613BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360"/>
+    <workbookView xWindow="34740" yWindow="-8360" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_flask_test_50" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="358">
   <si>
     <t>scene_number</t>
   </si>
@@ -1055,12 +1069,55 @@
   </si>
   <si>
     <t>41.6</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Cell Cuture Flask</t>
+  </si>
+  <si>
+    <t>Received Volume</t>
+  </si>
+  <si>
+    <t>Spilled Volume</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>RMSE (mL)</t>
+  </si>
+  <si>
+    <t>MAPE (%)</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>-0.06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1538,9 +1595,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1895,11 +1955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3998,4 +4058,281 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327733F6-C036-9E4F-A2B1-86C9FD945FAD}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pouring_simulation/output/results_flask_sim_to_reality.xlsx
+++ b/pouring_simulation/output/results_flask_sim_to_reality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschober/Documents/GitHub/thesis/pouring_simulation/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB8B1E-EED9-1A49-8235-9C83D5613BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8441D3-67AE-344C-AE1F-8DB0CF22784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="-8360" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_flask_test_50" sheetId="1" r:id="rId1"/>
@@ -1958,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4064,7 +4064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327733F6-C036-9E4F-A2B1-86C9FD945FAD}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:E22"/>
     </sheetView>
   </sheetViews>

--- a/pouring_simulation/output/results_flask_sim_to_reality.xlsx
+++ b/pouring_simulation/output/results_flask_sim_to_reality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschober/Documents/GitHub/thesis/pouring_simulation/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8441D3-67AE-344C-AE1F-8DB0CF22784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFFC6D-CE16-3F4E-B587-301B8FEF5C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="357">
   <si>
     <t>scene_number</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>4.115</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>125.0</t>
@@ -1959,7 +1956,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2042,9 +2039,7 @@
       <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2075,17 +2070,15 @@
         <v>146</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2116,17 +2109,15 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2165,9 +2156,7 @@
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2206,9 +2195,7 @@
       <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2247,9 +2234,7 @@
       <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2280,17 +2265,15 @@
         <v>153</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2321,17 +2304,15 @@
         <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2362,17 +2343,15 @@
         <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2403,17 +2382,15 @@
         <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2452,9 +2429,7 @@
       <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2485,17 +2460,15 @@
         <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2526,17 +2499,15 @@
         <v>165</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2567,17 +2538,15 @@
         <v>169</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2608,17 +2577,15 @@
         <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2649,17 +2616,15 @@
         <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2690,7 +2655,7 @@
         <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>18</v>
@@ -2698,9 +2663,7 @@
       <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2731,17 +2694,15 @@
         <v>177</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2772,17 +2733,15 @@
         <v>77</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2813,17 +2772,15 @@
         <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2854,17 +2811,15 @@
         <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2895,17 +2850,15 @@
         <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2936,17 +2889,15 @@
         <v>190</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2977,17 +2928,15 @@
         <v>86</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -3018,17 +2967,15 @@
         <v>197</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3059,17 +3006,15 @@
         <v>90</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -3100,17 +3045,15 @@
         <v>92</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -3141,17 +3084,15 @@
         <v>205</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -3182,17 +3123,15 @@
         <v>208</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -3231,9 +3170,7 @@
       <c r="L31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -3264,17 +3201,15 @@
         <v>211</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -3305,17 +3240,15 @@
         <v>90</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -3346,17 +3279,15 @@
         <v>215</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -3387,17 +3318,15 @@
         <v>219</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -3428,17 +3357,15 @@
         <v>222</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3469,17 +3396,15 @@
         <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -3510,17 +3435,15 @@
         <v>114</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3551,17 +3474,15 @@
         <v>228</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -3592,17 +3513,15 @@
         <v>231</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -3633,17 +3552,15 @@
         <v>118</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -3674,17 +3591,15 @@
         <v>121</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="L42" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -3715,17 +3630,15 @@
         <v>123</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -3756,17 +3669,15 @@
         <v>125</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -3797,17 +3708,15 @@
         <v>241</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -3846,9 +3755,7 @@
       <c r="L46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -3879,17 +3786,15 @@
         <v>132</v>
       </c>
       <c r="J47" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="L47" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -3920,17 +3825,15 @@
         <v>248</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="L48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -3961,17 +3864,15 @@
         <v>135</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -4002,17 +3903,15 @@
         <v>137</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -4043,17 +3942,15 @@
         <v>254</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="L51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4255,81 +4152,81 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
         <v>350</v>
       </c>
-      <c r="D18" t="s">
-        <v>351</v>
-      </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" t="s">
         <v>346</v>
       </c>
-      <c r="B19" t="s">
-        <v>347</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" t="s">
         <v>352</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>353</v>
-      </c>
-      <c r="E19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
